--- a/biology/Mycologie/Boletus_barrowsii/Boletus_barrowsii.xlsx
+++ b/biology/Mycologie/Boletus_barrowsii/Boletus_barrowsii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boletus barowsii, le Bolet de Barrow ou Roi des bolets blancs (en anglais : the white king bolete), est une espèce de champignons basidiomycètes, excellent comestible, du genre Boletus dans la famille des Boletaceae. Comme Boletus persoonii en Europe, lui aussi parfaitement blanc, il a longtemps été considéré comme une variété, avant d'être reconnu comme une espèce à part entière lors des analyses phylogénétiques du groupe des edulis sensu lato.
 </t>
@@ -513,18 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hyménophore
-Le chapeau est de 6 à 25 cm de diamètre, initialement de forme convexe, avant de s'aplatir en vieillissant. 
-Cuticule
-La surface est lisse ou légèrement tomenteuse, la couleur de la cuticule est gris-blanc, blanc ou chamois.
-Chair
-La chair épaisse est blanche et ne bleuit pas quand on l'écrase.
-Hyménium
-Les pores sont d'abord blanchâtres, puis jaunes. 
-Stipe
-Le stipe est ventru blanc avec un motif réticulé brun, et peut atteindre 6 à 20 cm de hauteur avec un diamètre apical de 2–6 cm. 
-Sporée
-L'impression de spores est brun olive, les spores sont elliptiques à fusiformes[2].
+          <t>Hyménophore</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chapeau est de 6 à 25 cm de diamètre, initialement de forme convexe, avant de s'aplatir en vieillissant. 
 </t>
         </is>
       </c>
@@ -550,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description du sporophore</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il forme des mycorhizes avec Pinus ponderosa et Quercus agrifolia sur la côte ouest de l'Amérique du Nord[3]. Il est abondant dans les parties les plus chaudes de son aire de répartition, à savoir l'Arizona et le Nouveau-Mexique, mais on le trouve aussi dans le Colorado et à l'ouest en Californie. Il a été récolté également dans les contreforts de San Marcos dans le comté de Santa Barbara[4].
+          <t>Cuticule</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La surface est lisse ou légèrement tomenteuse, la couleur de la cuticule est gris-blanc, blanc ou chamois.
 </t>
         </is>
       </c>
@@ -581,12 +594,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Saison</t>
+          <t>Description du sporophore</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ce champignon pousse à la fin de l'été, d'août à mi-septembre
+          <t>Chair</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chair épaisse est blanche et ne bleuit pas quand on l'écrase.
 </t>
         </is>
       </c>
@@ -612,12 +631,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Comestibilité</t>
+          <t>Description du sporophore</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ce champignon est un excellent comestible, même cru. Il est malheureusement souvent véreux.
+          <t>Hyménium</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les pores sont d'abord blanchâtres, puis jaunes. 
 </t>
         </is>
       </c>
@@ -643,10 +668,185 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Stipe</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le stipe est ventru blanc avec un motif réticulé brun, et peut atteindre 6 à 20 cm de hauteur avec un diamètre apical de 2–6 cm. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Boletus_barrowsii</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_barrowsii</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sporée</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'impression de spores est brun olive, les spores sont elliptiques à fusiformes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Boletus_barrowsii</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_barrowsii</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il forme des mycorhizes avec Pinus ponderosa et Quercus agrifolia sur la côte ouest de l'Amérique du Nord. Il est abondant dans les parties les plus chaudes de son aire de répartition, à savoir l'Arizona et le Nouveau-Mexique, mais on le trouve aussi dans le Colorado et à l'ouest en Californie. Il a été récolté également dans les contreforts de San Marcos dans le comté de Santa Barbara.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Boletus_barrowsii</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_barrowsii</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Saison</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce champignon pousse à la fin de l'été, d'août à mi-septembre
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Boletus_barrowsii</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_barrowsii</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Comestibilité</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce champignon est un excellent comestible, même cru. Il est malheureusement souvent véreux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Boletus_barrowsii</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_barrowsii</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Confusion possible</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Boletus satanas présente la même couleur de cuticule</t>
         </is>
